--- a/data/Epidemic transition metrics_Trend of new HIV infections.xlsx
+++ b/data/Epidemic transition metrics_Trend of new HIV infections.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6bfd23d27eac4442/WIP/Intro-to-R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6bfd23d27eac4442/WIP/unaids_esf/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB073E79-2D8F-41E2-821F-BCD18A6D61E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{CB073E79-2D8F-41E2-821F-BCD18A6D61E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F4E1AF5B-5F98-4395-BBE7-90E54292BA04}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="1770" windowWidth="29085" windowHeight="17580" activeTab="1"/>
+    <workbookView xWindow="1908" yWindow="3708" windowWidth="31092" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Epidemic transition metrics_Tre" sheetId="1" r:id="rId1"/>
-    <sheet name="Progress" sheetId="2" r:id="rId2"/>
+    <sheet name="Progress_Incidence" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Progress!$B$1:$E$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Progress_Incidence!$B$1:$E$117</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1938,7 +1949,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2795,25 +2806,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +2940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3019,7 +3030,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3109,7 +3120,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3199,7 +3210,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3289,7 +3300,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -3406,7 +3417,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3496,7 +3507,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3586,7 +3597,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -3697,7 +3708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -3787,7 +3798,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -3898,7 +3909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -4009,7 +4020,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -4120,7 +4131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -4210,7 +4221,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -4300,7 +4311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -4411,7 +4422,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -4522,7 +4533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -4612,7 +4623,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -4723,7 +4734,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -4813,7 +4824,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -4924,7 +4935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -5041,7 +5052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -5131,7 +5142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -5242,7 +5253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -5332,7 +5343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -5422,7 +5433,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -5512,7 +5523,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -5602,7 +5613,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -5692,7 +5703,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -5782,7 +5793,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -5893,7 +5904,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -5983,7 +5994,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -6073,7 +6084,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -6163,7 +6174,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -6274,7 +6285,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>121</v>
       </c>
@@ -6364,7 +6375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -6454,7 +6465,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -6544,7 +6555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>129</v>
       </c>
@@ -6634,7 +6645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>130</v>
       </c>
@@ -6724,7 +6735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -6814,7 +6825,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -6925,7 +6936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -7036,7 +7047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -7126,7 +7137,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -7237,7 +7248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -7327,7 +7338,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -7438,7 +7449,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -7528,7 +7539,7 @@
         <v>-63</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -7618,7 +7629,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>154</v>
       </c>
@@ -7708,7 +7719,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -7798,7 +7809,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>156</v>
       </c>
@@ -7888,7 +7899,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -7978,7 +7989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -8068,7 +8079,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -8179,7 +8190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -8269,7 +8280,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -8359,7 +8370,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>164</v>
       </c>
@@ -8449,7 +8460,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -8560,7 +8571,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -8647,7 +8658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>167</v>
       </c>
@@ -8737,7 +8748,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>168</v>
       </c>
@@ -8827,7 +8838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -8911,7 +8922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>170</v>
       </c>
@@ -9022,7 +9033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>171</v>
       </c>
@@ -9112,7 +9123,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>172</v>
       </c>
@@ -9223,7 +9234,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>173</v>
       </c>
@@ -9313,7 +9324,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>174</v>
       </c>
@@ -9403,7 +9414,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>175</v>
       </c>
@@ -9493,7 +9504,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>176</v>
       </c>
@@ -9583,7 +9594,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>177</v>
       </c>
@@ -9673,7 +9684,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>178</v>
       </c>
@@ -9763,7 +9774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>179</v>
       </c>
@@ -9874,7 +9885,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>180</v>
       </c>
@@ -9985,7 +9996,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>181</v>
       </c>
@@ -10096,7 +10107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>182</v>
       </c>
@@ -10207,7 +10218,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>183</v>
       </c>
@@ -10297,7 +10308,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>184</v>
       </c>
@@ -10381,7 +10392,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>185</v>
       </c>
@@ -10492,7 +10503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -10582,7 +10593,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>187</v>
       </c>
@@ -10672,7 +10683,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>188</v>
       </c>
@@ -10783,7 +10794,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>189</v>
       </c>
@@ -10894,7 +10905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -10984,7 +10995,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>191</v>
       </c>
@@ -11074,7 +11085,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>208</v>
       </c>
@@ -11185,7 +11196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>209</v>
       </c>
@@ -11275,7 +11286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>210</v>
       </c>
@@ -11365,7 +11376,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>211</v>
       </c>
@@ -11455,7 +11466,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>212</v>
       </c>
@@ -11545,7 +11556,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>213</v>
       </c>
@@ -11635,7 +11646,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -11725,7 +11736,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>216</v>
       </c>
@@ -11815,7 +11826,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>217</v>
       </c>
@@ -11905,7 +11916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>218</v>
       </c>
@@ -12016,7 +12027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>219</v>
       </c>
@@ -12106,7 +12117,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>220</v>
       </c>
@@ -12196,7 +12207,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>230</v>
       </c>
@@ -12286,7 +12297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>231</v>
       </c>
@@ -12397,7 +12408,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>232</v>
       </c>
@@ -12481,7 +12492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>233</v>
       </c>
@@ -12592,7 +12603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>234</v>
       </c>
@@ -12676,7 +12687,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>235</v>
       </c>
@@ -12766,7 +12777,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>236</v>
       </c>
@@ -12877,7 +12888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>237</v>
       </c>
@@ -12967,7 +12978,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>238</v>
       </c>
@@ -13057,7 +13068,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>239</v>
       </c>
@@ -13147,7 +13158,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>240</v>
       </c>
@@ -13237,7 +13248,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>258</v>
       </c>
@@ -13327,7 +13338,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>259</v>
       </c>
@@ -13417,7 +13428,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>260</v>
       </c>
@@ -13507,7 +13518,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>261</v>
       </c>
@@ -13597,7 +13608,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>262</v>
       </c>
@@ -13687,7 +13698,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>263</v>
       </c>
@@ -13777,7 +13788,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>264</v>
       </c>
@@ -13867,7 +13878,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>265</v>
       </c>
@@ -13957,7 +13968,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>277</v>
       </c>
@@ -14068,7 +14079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>278</v>
       </c>
@@ -14179,7 +14190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>279</v>
       </c>
@@ -14269,7 +14280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>280</v>
       </c>
@@ -14359,7 +14370,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>281</v>
       </c>
@@ -14470,7 +14481,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>282</v>
       </c>
@@ -14560,7 +14571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>283</v>
       </c>
@@ -14650,7 +14661,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>284</v>
       </c>
@@ -14740,7 +14751,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>285</v>
       </c>
@@ -14830,7 +14841,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>286</v>
       </c>
@@ -14941,7 +14952,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>287</v>
       </c>
@@ -15052,7 +15063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>288</v>
       </c>
@@ -15163,7 +15174,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -15274,7 +15285,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>290</v>
       </c>
@@ -15364,7 +15375,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>291</v>
       </c>
@@ -15454,7 +15465,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>292</v>
       </c>
@@ -15565,7 +15576,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>293</v>
       </c>
@@ -15655,7 +15666,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>294</v>
       </c>
@@ -15766,7 +15777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>295</v>
       </c>
@@ -15856,7 +15867,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>296</v>
       </c>
@@ -15973,7 +15984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>297</v>
       </c>
@@ -16063,7 +16074,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>298</v>
       </c>
@@ -16153,7 +16164,7 @@
         <v>-81</v>
       </c>
     </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>299</v>
       </c>
@@ -16264,7 +16275,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>300</v>
       </c>
@@ -16375,7 +16386,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>301</v>
       </c>
@@ -16465,7 +16476,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>302</v>
       </c>
@@ -16555,7 +16566,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>321</v>
       </c>
@@ -16645,7 +16656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>322</v>
       </c>
@@ -16735,7 +16746,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>323</v>
       </c>
@@ -16825,7 +16836,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>324</v>
       </c>
@@ -16915,7 +16926,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>325</v>
       </c>
@@ -17005,7 +17016,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>326</v>
       </c>
@@ -17116,7 +17127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>327</v>
       </c>
@@ -17206,7 +17217,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>328</v>
       </c>
@@ -17296,7 +17307,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>329</v>
       </c>
@@ -17386,7 +17397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>330</v>
       </c>
@@ -17476,7 +17487,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>331</v>
       </c>
@@ -17566,7 +17577,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>332</v>
       </c>
@@ -17656,7 +17667,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>333</v>
       </c>
@@ -17773,7 +17784,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>334</v>
       </c>
@@ -17863,7 +17874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>335</v>
       </c>
@@ -17974,7 +17985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>336</v>
       </c>
@@ -18085,7 +18096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>337</v>
       </c>
@@ -18175,7 +18186,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>356</v>
       </c>
@@ -18265,7 +18276,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>357</v>
       </c>
@@ -18376,7 +18387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>358</v>
       </c>
@@ -18487,7 +18498,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>359</v>
       </c>
@@ -18577,7 +18588,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>368</v>
       </c>
@@ -18664,7 +18675,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>372</v>
       </c>
@@ -18775,7 +18786,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>373</v>
       </c>
@@ -18865,7 +18876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>374</v>
       </c>
@@ -18955,7 +18966,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>375</v>
       </c>
@@ -19045,7 +19056,7 @@
         <v>-68</v>
       </c>
     </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>376</v>
       </c>
@@ -19135,7 +19146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>377</v>
       </c>
@@ -19225,7 +19236,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>379</v>
       </c>
@@ -19315,7 +19326,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>384</v>
       </c>
@@ -19411,23 +19422,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection sqref="A1:F117"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>635</v>
       </c>
@@ -19447,7 +19458,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>625</v>
       </c>
@@ -19467,7 +19478,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>498</v>
       </c>
@@ -19487,7 +19498,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>562</v>
       </c>
@@ -19507,7 +19518,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>634</v>
       </c>
@@ -19527,7 +19538,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>427</v>
       </c>
@@ -19547,7 +19558,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>594</v>
       </c>
@@ -19567,7 +19578,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>505</v>
       </c>
@@ -19587,7 +19598,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>592</v>
       </c>
@@ -19607,7 +19618,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>598</v>
       </c>
@@ -19627,7 +19638,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>576</v>
       </c>
@@ -19647,7 +19658,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>414</v>
       </c>
@@ -19667,7 +19678,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>423</v>
       </c>
@@ -19687,7 +19698,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>426</v>
       </c>
@@ -19707,7 +19718,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>453</v>
       </c>
@@ -19727,7 +19738,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>593</v>
       </c>
@@ -19747,7 +19758,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>478</v>
       </c>
@@ -19767,7 +19778,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>413</v>
       </c>
@@ -19787,7 +19798,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>417</v>
       </c>
@@ -19807,7 +19818,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>566</v>
       </c>
@@ -19827,7 +19838,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>446</v>
       </c>
@@ -19847,7 +19858,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>428</v>
       </c>
@@ -19867,7 +19878,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>435</v>
       </c>
@@ -19887,7 +19898,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>418</v>
       </c>
@@ -19907,7 +19918,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>552</v>
       </c>
@@ -19927,7 +19938,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>434</v>
       </c>
@@ -19947,7 +19958,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>459</v>
       </c>
@@ -19967,7 +19978,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>456</v>
       </c>
@@ -19987,7 +19998,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>514</v>
       </c>
@@ -20007,7 +20018,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>429</v>
       </c>
@@ -20027,7 +20038,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>438</v>
       </c>
@@ -20047,7 +20058,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>481</v>
       </c>
@@ -20067,7 +20078,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>520</v>
       </c>
@@ -20087,7 +20098,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>424</v>
       </c>
@@ -20107,7 +20118,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>574</v>
       </c>
@@ -20127,7 +20138,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>455</v>
       </c>
@@ -20147,7 +20158,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>483</v>
       </c>
@@ -20167,7 +20178,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>449</v>
       </c>
@@ -20187,7 +20198,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>591</v>
       </c>
@@ -20207,7 +20218,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>443</v>
       </c>
@@ -20227,7 +20238,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>464</v>
       </c>
@@ -20247,7 +20258,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>436</v>
       </c>
@@ -20267,7 +20278,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -20287,7 +20298,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>432</v>
       </c>
@@ -20307,7 +20318,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>420</v>
       </c>
@@ -20327,7 +20338,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>419</v>
       </c>
@@ -20347,7 +20358,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>515</v>
       </c>
@@ -20367,7 +20378,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>487</v>
       </c>
@@ -20387,7 +20398,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>502</v>
       </c>
@@ -20407,7 +20418,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>530</v>
       </c>
@@ -20427,7 +20438,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>497</v>
       </c>
@@ -20447,7 +20458,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>433</v>
       </c>
@@ -20467,7 +20478,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>411</v>
       </c>
@@ -20487,7 +20498,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>473</v>
       </c>
@@ -20507,7 +20518,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>482</v>
       </c>
@@ -20527,7 +20538,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>606</v>
       </c>
@@ -20547,7 +20558,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>532</v>
       </c>
@@ -20567,7 +20578,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>527</v>
       </c>
@@ -20587,7 +20598,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>612</v>
       </c>
@@ -20607,7 +20618,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>457</v>
       </c>
@@ -20627,7 +20638,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>441</v>
       </c>
@@ -20647,7 +20658,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>452</v>
       </c>
@@ -20667,7 +20678,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>596</v>
       </c>
@@ -20687,7 +20698,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>442</v>
       </c>
@@ -20707,7 +20718,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>490</v>
       </c>
@@ -20727,7 +20738,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>416</v>
       </c>
@@ -20747,7 +20758,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>458</v>
       </c>
@@ -20767,7 +20778,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>508</v>
       </c>
@@ -20787,7 +20798,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>476</v>
       </c>
@@ -20807,7 +20818,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>445</v>
       </c>
@@ -20827,7 +20838,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>431</v>
       </c>
@@ -20847,7 +20858,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>582</v>
       </c>
@@ -20867,7 +20878,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>485</v>
       </c>
@@ -20887,7 +20898,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>615</v>
       </c>
@@ -20907,7 +20918,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>477</v>
       </c>
@@ -20927,7 +20938,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>489</v>
       </c>
@@ -20947,7 +20958,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>467</v>
       </c>
@@ -20967,7 +20978,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>567</v>
       </c>
@@ -20987,7 +20998,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>555</v>
       </c>
@@ -21007,7 +21018,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>523</v>
       </c>
@@ -21027,7 +21038,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>521</v>
       </c>
@@ -21047,7 +21058,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>444</v>
       </c>
@@ -21067,7 +21078,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>410</v>
       </c>
@@ -21087,7 +21098,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>462</v>
       </c>
@@ -21107,7 +21118,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>533</v>
       </c>
@@ -21127,7 +21138,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>556</v>
       </c>
@@ -21147,7 +21158,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>471</v>
       </c>
@@ -21167,7 +21178,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>537</v>
       </c>
@@ -21187,7 +21198,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>516</v>
       </c>
@@ -21207,7 +21218,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>571</v>
       </c>
@@ -21227,7 +21238,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>607</v>
       </c>
@@ -21247,7 +21258,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>454</v>
       </c>
@@ -21267,7 +21278,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>584</v>
       </c>
@@ -21287,7 +21298,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>484</v>
       </c>
@@ -21307,7 +21318,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>554</v>
       </c>
@@ -21327,7 +21338,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>430</v>
       </c>
@@ -21347,7 +21358,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>468</v>
       </c>
@@ -21367,7 +21378,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>421</v>
       </c>
@@ -21387,7 +21398,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>526</v>
       </c>
@@ -21407,7 +21418,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>524</v>
       </c>
@@ -21427,7 +21438,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>472</v>
       </c>
@@ -21447,7 +21458,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>620</v>
       </c>
@@ -21467,7 +21478,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>425</v>
       </c>
@@ -21487,7 +21498,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>536</v>
       </c>
@@ -21507,7 +21518,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>513</v>
       </c>
@@ -21527,7 +21538,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>577</v>
       </c>
@@ -21547,7 +21558,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>470</v>
       </c>
@@ -21567,7 +21578,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>561</v>
       </c>
@@ -21587,7 +21598,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>517</v>
       </c>
@@ -21607,7 +21618,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>409</v>
       </c>
@@ -21627,7 +21638,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>553</v>
       </c>
@@ -21647,7 +21658,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>602</v>
       </c>
@@ -21667,7 +21678,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>503</v>
       </c>
@@ -21687,7 +21698,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>595</v>
       </c>
@@ -21707,7 +21718,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>437</v>
       </c>
@@ -21727,7 +21738,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>621</v>
       </c>
@@ -21747,7 +21758,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>506</v>
       </c>
@@ -21768,7 +21779,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E117">
+  <autoFilter ref="B1:E117" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E117">
       <sortCondition ref="D1:D117"/>
     </sortState>
@@ -21814,19 +21825,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D2:E195"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>34</v>
       </c>
@@ -21834,7 +21845,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>35</v>
       </c>
@@ -21842,7 +21853,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>65</v>
       </c>
@@ -21850,7 +21861,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>69</v>
       </c>
@@ -21858,7 +21869,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>96</v>
       </c>
@@ -21866,7 +21877,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>97</v>
       </c>
@@ -21874,7 +21885,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>415</v>
       </c>
@@ -21882,7 +21893,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>100</v>
       </c>
@@ -21890,7 +21901,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>116</v>
       </c>
@@ -21898,7 +21909,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>118</v>
       </c>
@@ -21906,7 +21917,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>126</v>
       </c>
@@ -21914,7 +21925,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>128</v>
       </c>
@@ -21922,7 +21933,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>422</v>
       </c>
@@ -21930,7 +21941,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>138</v>
       </c>
@@ -21938,7 +21949,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>157</v>
       </c>
@@ -21946,7 +21957,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>158</v>
       </c>
@@ -21954,7 +21965,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>160</v>
       </c>
@@ -21962,7 +21973,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>161</v>
       </c>
@@ -21970,7 +21981,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>167</v>
       </c>
@@ -21978,7 +21989,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>168</v>
       </c>
@@ -21986,7 +21997,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>171</v>
       </c>
@@ -21994,7 +22005,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>174</v>
       </c>
@@ -22002,7 +22013,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>175</v>
       </c>
@@ -22010,7 +22021,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>191</v>
       </c>
@@ -22018,7 +22029,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>213</v>
       </c>
@@ -22026,7 +22037,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>215</v>
       </c>
@@ -22034,7 +22045,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>219</v>
       </c>
@@ -22042,7 +22053,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>220</v>
       </c>
@@ -22050,7 +22061,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>232</v>
       </c>
@@ -22058,7 +22069,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>234</v>
       </c>
@@ -22066,7 +22077,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>235</v>
       </c>
@@ -22074,7 +22085,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>240</v>
       </c>
@@ -22082,7 +22093,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>259</v>
       </c>
@@ -22090,7 +22101,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>264</v>
       </c>
@@ -22098,7 +22109,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>265</v>
       </c>
@@ -22106,7 +22117,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>293</v>
       </c>
@@ -22114,7 +22125,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>447</v>
       </c>
@@ -22122,7 +22133,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>295</v>
       </c>
@@ -22130,7 +22141,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>450</v>
       </c>
@@ -22138,7 +22149,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>297</v>
       </c>
@@ -22146,7 +22157,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>302</v>
       </c>
@@ -22154,7 +22165,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>321</v>
       </c>
@@ -22162,7 +22173,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>332</v>
       </c>
@@ -22170,7 +22181,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>337</v>
       </c>
@@ -22178,7 +22189,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>359</v>
       </c>
@@ -22186,7 +22197,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>377</v>
       </c>
@@ -22194,7 +22205,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>379</v>
       </c>
@@ -22202,7 +22213,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>460</v>
       </c>
@@ -22210,7 +22221,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>48</v>
       </c>
@@ -22218,7 +22229,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>58</v>
       </c>
@@ -22226,7 +22237,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>61</v>
       </c>
@@ -22234,7 +22245,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>64</v>
       </c>
@@ -22242,7 +22253,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>466</v>
       </c>
@@ -22250,7 +22261,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>80</v>
       </c>
@@ -22258,7 +22269,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>115</v>
       </c>
@@ -22266,7 +22277,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>119</v>
       </c>
@@ -22274,7 +22285,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>121</v>
       </c>
@@ -22282,7 +22293,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>129</v>
       </c>
@@ -22290,7 +22301,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>131</v>
       </c>
@@ -22298,7 +22309,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>474</v>
       </c>
@@ -22306,7 +22317,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>153</v>
       </c>
@@ -22314,7 +22325,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>154</v>
       </c>
@@ -22322,7 +22333,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>156</v>
       </c>
@@ -22330,7 +22341,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>479</v>
       </c>
@@ -22338,7 +22349,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>173</v>
       </c>
@@ -22346,7 +22357,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>176</v>
       </c>
@@ -22354,7 +22365,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>177</v>
       </c>
@@ -22362,7 +22373,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>178</v>
       </c>
@@ -22370,7 +22381,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>187</v>
       </c>
@@ -22378,7 +22389,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>236</v>
       </c>
@@ -22386,7 +22397,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>263</v>
       </c>
@@ -22394,7 +22405,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>281</v>
       </c>
@@ -22402,7 +22413,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>283</v>
       </c>
@@ -22410,7 +22421,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>284</v>
       </c>
@@ -22418,7 +22429,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>491</v>
       </c>
@@ -22426,7 +22437,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>493</v>
       </c>
@@ -22434,7 +22445,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>495</v>
       </c>
@@ -22442,7 +22453,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>325</v>
       </c>
@@ -22450,7 +22461,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>333</v>
       </c>
@@ -22458,7 +22469,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>499</v>
       </c>
@@ -22466,7 +22477,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>372</v>
       </c>
@@ -22474,7 +22485,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>374</v>
       </c>
@@ -22482,7 +22493,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>26</v>
       </c>
@@ -22490,7 +22501,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>59</v>
       </c>
@@ -22498,7 +22509,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>152</v>
       </c>
@@ -22506,7 +22517,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>155</v>
       </c>
@@ -22514,7 +22525,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>507</v>
       </c>
@@ -22522,7 +22533,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>509</v>
       </c>
@@ -22530,7 +22541,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>189</v>
       </c>
@@ -22538,7 +22549,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>208</v>
       </c>
@@ -22546,7 +22557,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>212</v>
       </c>
@@ -22554,7 +22565,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>216</v>
       </c>
@@ -22562,7 +22573,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>239</v>
       </c>
@@ -22570,7 +22581,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>279</v>
       </c>
@@ -22578,7 +22589,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>280</v>
       </c>
@@ -22586,7 +22597,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>288</v>
       </c>
@@ -22594,7 +22605,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>294</v>
       </c>
@@ -22602,7 +22613,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>301</v>
       </c>
@@ -22610,7 +22621,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
         <v>324</v>
       </c>
@@ -22618,7 +22629,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
         <v>522</v>
       </c>
@@ -22626,7 +22637,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>334</v>
       </c>
@@ -22634,7 +22645,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>357</v>
       </c>
@@ -22642,7 +22653,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>376</v>
       </c>
@@ -22650,7 +22661,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>29</v>
       </c>
@@ -22658,7 +22669,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>528</v>
       </c>
@@ -22666,7 +22677,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
         <v>50</v>
       </c>
@@ -22674,7 +22685,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
         <v>52</v>
       </c>
@@ -22682,7 +22693,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>56</v>
       </c>
@@ -22690,7 +22701,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>62</v>
       </c>
@@ -22698,7 +22709,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>63</v>
       </c>
@@ -22706,7 +22717,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>68</v>
       </c>
@@ -22714,7 +22725,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>95</v>
       </c>
@@ -22722,7 +22733,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
         <v>130</v>
       </c>
@@ -22730,7 +22741,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
         <v>132</v>
       </c>
@@ -22738,7 +22749,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
         <v>539</v>
       </c>
@@ -22746,7 +22757,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
         <v>151</v>
       </c>
@@ -22754,7 +22765,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
         <v>159</v>
       </c>
@@ -22762,7 +22773,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
         <v>165</v>
       </c>
@@ -22770,7 +22781,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
         <v>166</v>
       </c>
@@ -22778,7 +22789,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
         <v>169</v>
       </c>
@@ -22786,7 +22797,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
         <v>170</v>
       </c>
@@ -22794,7 +22805,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
         <v>172</v>
       </c>
@@ -22802,7 +22813,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
         <v>179</v>
       </c>
@@ -22810,7 +22821,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
         <v>180</v>
       </c>
@@ -22818,7 +22829,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
         <v>184</v>
       </c>
@@ -22826,7 +22837,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
         <v>185</v>
       </c>
@@ -22834,7 +22845,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
         <v>186</v>
       </c>
@@ -22842,7 +22853,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
         <v>190</v>
       </c>
@@ -22850,7 +22861,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
         <v>209</v>
       </c>
@@ -22858,7 +22869,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
         <v>211</v>
       </c>
@@ -22866,7 +22877,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>217</v>
       </c>
@@ -22874,7 +22885,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
         <v>218</v>
       </c>
@@ -22882,7 +22893,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
         <v>233</v>
       </c>
@@ -22890,7 +22901,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
         <v>559</v>
       </c>
@@ -22898,7 +22909,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>238</v>
       </c>
@@ -22906,7 +22917,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
         <v>261</v>
       </c>
@@ -22914,7 +22925,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
         <v>278</v>
       </c>
@@ -22922,7 +22933,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>286</v>
       </c>
@@ -22930,7 +22941,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>287</v>
       </c>
@@ -22938,7 +22949,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
         <v>290</v>
       </c>
@@ -22946,7 +22957,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
         <v>291</v>
       </c>
@@ -22954,7 +22965,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
         <v>292</v>
       </c>
@@ -22962,7 +22973,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
         <v>569</v>
       </c>
@@ -22970,7 +22981,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
         <v>296</v>
       </c>
@@ -22978,7 +22989,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>299</v>
       </c>
@@ -22986,7 +22997,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
         <v>300</v>
       </c>
@@ -22994,7 +23005,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
         <v>322</v>
       </c>
@@ -23002,7 +23013,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
         <v>326</v>
       </c>
@@ -23010,7 +23021,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>327</v>
       </c>
@@ -23018,7 +23029,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
         <v>329</v>
       </c>
@@ -23026,7 +23037,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
         <v>578</v>
       </c>
@@ -23034,7 +23045,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
         <v>335</v>
       </c>
@@ -23042,7 +23053,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
         <v>336</v>
       </c>
@@ -23050,7 +23061,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D155" t="s">
         <v>356</v>
       </c>
@@ -23058,7 +23069,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
         <v>358</v>
       </c>
@@ -23066,7 +23077,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
         <v>373</v>
       </c>
@@ -23074,7 +23085,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
         <v>60</v>
       </c>
@@ -23082,7 +23093,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>66</v>
       </c>
@@ -23090,7 +23101,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
         <v>137</v>
       </c>
@@ -23098,7 +23109,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
         <v>181</v>
       </c>
@@ -23106,7 +23117,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
         <v>182</v>
       </c>
@@ -23114,7 +23125,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
         <v>231</v>
       </c>
@@ -23122,7 +23133,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
         <v>258</v>
       </c>
@@ -23130,7 +23141,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>260</v>
       </c>
@@ -23138,7 +23149,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>323</v>
       </c>
@@ -23146,7 +23157,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>330</v>
       </c>
@@ -23154,7 +23165,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>331</v>
       </c>
@@ -23162,7 +23173,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
         <v>51</v>
       </c>
@@ -23170,7 +23181,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
         <v>94</v>
       </c>
@@ -23178,7 +23189,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D171" t="s">
         <v>99</v>
       </c>
@@ -23186,7 +23197,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D172" t="s">
         <v>120</v>
       </c>
@@ -23194,7 +23205,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>600</v>
       </c>
@@ -23202,7 +23213,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>164</v>
       </c>
@@ -23210,7 +23221,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D175" t="s">
         <v>188</v>
       </c>
@@ -23218,7 +23229,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D176" t="s">
         <v>604</v>
       </c>
@@ -23226,7 +23237,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D177" t="s">
         <v>210</v>
       </c>
@@ -23234,7 +23245,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D178" t="s">
         <v>230</v>
       </c>
@@ -23242,7 +23253,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>608</v>
       </c>
@@ -23250,7 +23261,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
         <v>610</v>
       </c>
@@ -23258,7 +23269,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>237</v>
       </c>
@@ -23266,7 +23277,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D182" t="s">
         <v>613</v>
       </c>
@@ -23274,7 +23285,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D183" t="s">
         <v>262</v>
       </c>
@@ -23282,7 +23293,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D184" t="s">
         <v>616</v>
       </c>
@@ -23290,7 +23301,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D185" t="s">
         <v>618</v>
       </c>
@@ -23298,7 +23309,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D186" t="s">
         <v>282</v>
       </c>
@@ -23306,7 +23317,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>285</v>
       </c>
@@ -23314,7 +23325,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>289</v>
       </c>
@@ -23322,7 +23333,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>623</v>
       </c>
@@ -23330,7 +23341,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>298</v>
       </c>
@@ -23338,7 +23349,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D191" t="s">
         <v>626</v>
       </c>
@@ -23346,7 +23357,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D192" t="s">
         <v>628</v>
       </c>
@@ -23354,7 +23365,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D193" t="s">
         <v>630</v>
       </c>
@@ -23362,7 +23373,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>632</v>
       </c>
@@ -23370,7 +23381,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D195" t="s">
         <v>375</v>
       </c>
